--- a/data/EPNM/interim/model_parameters/shocks/labor.xlsx
+++ b/data/EPNM/interim/model_parameters/shocks/labor.xlsx
@@ -421,7 +421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,6 +460,10 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -541,11 +545,11 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
@@ -3365,11 +3369,11 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G64" activeCellId="0" sqref="G64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -4288,17 +4292,19 @@
       <c r="A46" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>0</v>
+      <c r="B46" s="4" t="n">
+        <v>7.16452991452992</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <f aca="false">33.1623931623932+7.13141025641026</f>
+        <v>40.2938034188035</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>40.6068376068376</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <f aca="false">100-D46-C46-B46</f>
+        <v>11.934829059829</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
